--- a/target/classes/qa/testData/ninjaqaTestData.xlsx
+++ b/target/classes/qa/testData/ninjaqaTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11430" windowHeight="2175"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -398,10 +399,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
